--- a/biology/Zoologie/Cheval_de_selle_luxembourgeois/Cheval_de_selle_luxembourgeois.xlsx
+++ b/biology/Zoologie/Cheval_de_selle_luxembourgeois/Cheval_de_selle_luxembourgeois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le cheval de selle luxembourgeois est un stud-book de chevaux de sport, ne répondant pas à la définition d'une race. Il est membre de la WBFSH. Ce stud-book a été sélectionné au Luxembourg à partir de chevaux Selle français, et de Hanovrien et Holsteiner allemands.
@@ -512,11 +524,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces chevaux sont également nommés Saddlebred en anglais[1]. L'abréviation de ce stud-book au sein de la WBFSH est « SL »[2]. Comme de nombreux chevaux de sport européens, le SL ne répond pas à la définition d'une race[3].
-Il provient d'une trentaine de reproducteurs Pur-sang[4], ainsi que de croisements entre chevaux de sport français et allemands[1]. En particulier, des juments de race Hanovrien sont importées entre 1958 et 1970, puis croisées avec des étalons Holsteiner[4].
-La Fédération des Stud-Books Luxembourg Elois (FSBL) est créée le 8 décembre 1970 à Mersch, avec une section pour le cheval de selle[5]. En 1986, 615 individus sont recensés dans ce stud-book selle[1]. Une étape importante dans la création de ce stud-book fut la convention de coopération signée entre la FSBL et le stud-book Zangersheide, le 11 mars, qui prit fin le 31 décembre 1999. Cette même année, la FSBL est dissoute au profit de stud-books autonomes sous le statut d'associations sans but lucratifs. Le stud-book du Cheval de selle luxembourgeois (SCSL) est ainsi officiellement créé le 27 janvier 1999[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces chevaux sont également nommés Saddlebred en anglais. L'abréviation de ce stud-book au sein de la WBFSH est « SL ». Comme de nombreux chevaux de sport européens, le SL ne répond pas à la définition d'une race.
+Il provient d'une trentaine de reproducteurs Pur-sang, ainsi que de croisements entre chevaux de sport français et allemands. En particulier, des juments de race Hanovrien sont importées entre 1958 et 1970, puis croisées avec des étalons Holsteiner.
+La Fédération des Stud-Books Luxembourg Elois (FSBL) est créée le 8 décembre 1970 à Mersch, avec une section pour le cheval de selle. En 1986, 615 individus sont recensés dans ce stud-book selle. Une étape importante dans la création de ce stud-book fut la convention de coopération signée entre la FSBL et le stud-book Zangersheide, le 11 mars, qui prit fin le 31 décembre 1999. Cette même année, la FSBL est dissoute au profit de stud-books autonomes sous le statut d'associations sans but lucratifs. Le stud-book du Cheval de selle luxembourgeois (SCSL) est ainsi officiellement créé le 27 janvier 1999.
 </t>
         </is>
       </c>
@@ -545,12 +559,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le guide Delachaux indique une taille de 1,62 m à 1,70 m[4], tandis que la base de données DAD-IS fournit des mesures de référence allant de 1,62 m en moyenne chez les femelles à 1,68 m en moyenne chez les mâles, pour un poids de 500 à 600 kg[1]. Ce cheval de sport est musclé, et doté de solides membres[4]. Le garrot est sorti, l'encolure est musclée et longue[4].
-Toutes les robes sont admises par le stud-book, sauf le pie, les plus fréquentes étant le bai sous toutes les nuances, et l'alezan[4].
-Le caractère est considéré comme bon, le SL étant réputé par ailleurs pour son intelligence[4].
-Les chevaux sont marqués d'un « L » depuis le début des années 1990. Ce marquage au fer a été agréé le 4 octobre 2000 à Alicante[5]. L'association gestionnaire du stud-book organise des championnats de poulains et expertises d'étalons[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le guide Delachaux indique une taille de 1,62 m à 1,70 m, tandis que la base de données DAD-IS fournit des mesures de référence allant de 1,62 m en moyenne chez les femelles à 1,68 m en moyenne chez les mâles, pour un poids de 500 à 600 kg. Ce cheval de sport est musclé, et doté de solides membres. Le garrot est sorti, l'encolure est musclée et longue.
+Toutes les robes sont admises par le stud-book, sauf le pie, les plus fréquentes étant le bai sous toutes les nuances, et l'alezan.
+Le caractère est considéré comme bon, le SL étant réputé par ailleurs pour son intelligence.
+Les chevaux sont marqués d'un « L » depuis le début des années 1990. Ce marquage au fer a été agréé le 4 octobre 2000 à Alicante. L'association gestionnaire du stud-book organise des championnats de poulains et expertises d'étalons.
 </t>
         </is>
       </c>
@@ -579,9 +595,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un cheval de sport, particulièrement adapté au saut d'obstacles et au dressage[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un cheval de sport, particulièrement adapté au saut d'obstacles et au dressage.
 </t>
         </is>
       </c>
@@ -610,9 +628,11 @@
           <t>Diffusion de l'élevage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces chevaux sont présents dans tout le Luxembourg. Ils sont signalés comme race en danger d'extinction (2018) sur DAD-IS[1]. Les relevés d'effectifs indiquent une croissance de la population jusque dans les années 2010, le recensement de 2013 ayant permis de dénombrer 2 506 sujets, avec une tendance à la baisse[1]. D'après le guide Delachaux, les naissances annuelles sont de 150 à 200 poulains[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces chevaux sont présents dans tout le Luxembourg. Ils sont signalés comme race en danger d'extinction (2018) sur DAD-IS. Les relevés d'effectifs indiquent une croissance de la population jusque dans les années 2010, le recensement de 2013 ayant permis de dénombrer 2 506 sujets, avec une tendance à la baisse. D'après le guide Delachaux, les naissances annuelles sont de 150 à 200 poulains.
 </t>
         </is>
       </c>
